--- a/Municípios/Data/PEVS_silvicultura.xlsx
+++ b/Municípios/Data/PEVS_silvicultura.xlsx
@@ -409,7 +409,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -440,7 +440,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7477,7 +7477,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -11042,7 +11042,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -11569,7 +11569,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -11724,7 +11724,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -11786,7 +11786,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -11972,7 +11972,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -12065,7 +12065,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -13677,7 +13677,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -13770,7 +13770,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -13832,7 +13832,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -13894,7 +13894,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -13925,7 +13925,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -13987,7 +13987,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -14514,7 +14514,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -14545,7 +14545,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -15537,7 +15537,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -15568,7 +15568,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -15599,7 +15599,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -15630,7 +15630,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -15692,7 +15692,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -15754,7 +15754,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -15847,7 +15847,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -15909,7 +15909,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -15940,7 +15940,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -16002,7 +16002,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -16033,7 +16033,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -16095,7 +16095,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -16126,7 +16126,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -16157,7 +16157,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -16188,7 +16188,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -16250,7 +16250,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -16281,7 +16281,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -17180,7 +17180,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -17211,7 +17211,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -17242,7 +17242,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -17831,7 +17831,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -17862,7 +17862,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -17924,7 +17924,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -17955,7 +17955,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -18017,7 +18017,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -18048,7 +18048,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -18079,7 +18079,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -18327,7 +18327,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -18668,7 +18668,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -18699,7 +18699,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -18730,7 +18730,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -18978,7 +18978,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -19009,7 +19009,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -19071,7 +19071,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -19877,7 +19877,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -19908,7 +19908,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -19939,7 +19939,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -19970,7 +19970,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -20001,7 +20001,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -20032,7 +20032,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -20094,7 +20094,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -20218,7 +20218,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -20249,7 +20249,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -20900,7 +20900,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -20931,7 +20931,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -20962,7 +20962,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -20993,7 +20993,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -21024,7 +21024,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -21055,7 +21055,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -21086,7 +21086,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -21117,7 +21117,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -21799,7 +21799,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -21830,7 +21830,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -21861,7 +21861,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -21892,7 +21892,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -22109,7 +22109,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -22140,7 +22140,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -22698,7 +22698,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -22791,7 +22791,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -22915,7 +22915,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -22946,7 +22946,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -22977,7 +22977,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -23008,7 +23008,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Valor médio unitário na silvicultura</t>
+          <t>Preço médio recebido na silvicultura</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">

--- a/Municípios/Data/PEVS_silvicultura.xlsx
+++ b/Municípios/Data/PEVS_silvicultura.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,17 +390,27 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Valor médio real unitário</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Ranking Quantidade produzida na silvicultura</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ranking Valor nominal da produção</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ranking Valor real da produção</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Ranking Valor médio real unitário</t>
         </is>
       </c>
     </row>
@@ -430,7 +440,7 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>0.32</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -438,6 +448,12 @@
       <c r="I2">
         <v>4</v>
       </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -465,7 +481,7 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>0.32</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -473,6 +489,12 @@
       <c r="I3">
         <v>4</v>
       </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,12 +522,18 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
     </row>
@@ -531,12 +559,12 @@
       <c r="F5">
         <v>15</v>
       </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
       <c r="I5">
         <v>12</v>
       </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>0.29</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -572,6 +600,12 @@
       <c r="I6">
         <v>4</v>
       </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -599,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>0.29</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -607,6 +641,12 @@
       <c r="I7">
         <v>4</v>
       </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -634,12 +674,18 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
     </row>
@@ -665,12 +711,12 @@
       <c r="F9">
         <v>13</v>
       </c>
-      <c r="H9">
-        <v>13</v>
-      </c>
       <c r="I9">
         <v>13</v>
       </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -698,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>0.03</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -706,6 +752,12 @@
       <c r="I10">
         <v>14</v>
       </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -733,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>0.03</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -741,6 +793,12 @@
       <c r="I11">
         <v>14</v>
       </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -764,12 +822,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>15</v>
-      </c>
       <c r="I12">
         <v>15</v>
       </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -797,12 +855,18 @@
         <v>2285</v>
       </c>
       <c r="G13">
+        <v>0.13</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
       <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
     </row>
@@ -832,12 +896,18 @@
         <v>2285</v>
       </c>
       <c r="G14">
+        <v>0.13</v>
+      </c>
+      <c r="H14">
         <v>3</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
       <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
     </row>
@@ -863,10 +933,10 @@
       <c r="F15">
         <v>2285</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>1</v>
       </c>
     </row>
@@ -896,14 +966,20 @@
         <v>1269</v>
       </c>
       <c r="G16">
+        <v>0.12</v>
+      </c>
+      <c r="H16">
         <v>5</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
       </c>
       <c r="I16">
         <v>3</v>
       </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -931,14 +1007,20 @@
         <v>1269</v>
       </c>
       <c r="G17">
+        <v>0.12</v>
+      </c>
+      <c r="H17">
         <v>5</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
       </c>
       <c r="I17">
         <v>3</v>
       </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -962,12 +1044,12 @@
       <c r="F18">
         <v>1269</v>
       </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
       <c r="I18">
         <v>3</v>
       </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -995,14 +1077,20 @@
         <v>155</v>
       </c>
       <c r="G19">
+        <v>0.11</v>
+      </c>
+      <c r="H19">
         <v>7</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
       </c>
       <c r="I19">
         <v>5</v>
       </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1030,14 +1118,20 @@
         <v>155</v>
       </c>
       <c r="G20">
+        <v>0.11</v>
+      </c>
+      <c r="H20">
         <v>7</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
       </c>
       <c r="I20">
         <v>5</v>
       </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1061,12 +1155,12 @@
       <c r="F21">
         <v>155</v>
       </c>
-      <c r="H21">
-        <v>7</v>
-      </c>
       <c r="I21">
         <v>7</v>
       </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1094,7 +1188,7 @@
         <v>714</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -1102,6 +1196,12 @@
       <c r="I22">
         <v>5</v>
       </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1129,7 +1229,7 @@
         <v>714</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -1137,6 +1237,12 @@
       <c r="I23">
         <v>5</v>
       </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1160,12 +1266,12 @@
       <c r="F24">
         <v>714</v>
       </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
       <c r="I24">
         <v>5</v>
       </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1193,7 +1299,7 @@
         <v>937</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -1201,6 +1307,12 @@
       <c r="I25">
         <v>5</v>
       </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1228,7 +1340,7 @@
         <v>937</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -1236,6 +1348,12 @@
       <c r="I26">
         <v>5</v>
       </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1259,12 +1377,12 @@
       <c r="F27">
         <v>937</v>
       </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
       <c r="I27">
         <v>5</v>
       </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1292,7 +1410,7 @@
         <v>498</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -1300,6 +1418,12 @@
       <c r="I28">
         <v>5</v>
       </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1327,7 +1451,7 @@
         <v>498</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -1335,6 +1459,12 @@
       <c r="I29">
         <v>5</v>
       </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1358,12 +1488,12 @@
       <c r="F30">
         <v>498</v>
       </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
       <c r="I30">
         <v>5</v>
       </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1391,13 +1521,19 @@
         <v>1879</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
         <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1426,13 +1562,19 @@
         <v>1879</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
         <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1457,10 +1599,10 @@
       <c r="F33">
         <v>1879</v>
       </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
       <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
         <v>2</v>
       </c>
     </row>
@@ -1490,7 +1632,7 @@
         <v>1006</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -1498,6 +1640,12 @@
       <c r="I34">
         <v>3</v>
       </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1525,7 +1673,7 @@
         <v>1006</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -1533,6 +1681,12 @@
       <c r="I35">
         <v>3</v>
       </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1556,12 +1710,12 @@
       <c r="F36">
         <v>1006</v>
       </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
       <c r="I36">
         <v>3</v>
       </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1589,12 +1743,18 @@
         <v>2590</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>0.09</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
         <v>2</v>
       </c>
     </row>
@@ -1624,12 +1784,18 @@
         <v>2590</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>0.09</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
         <v>2</v>
       </c>
     </row>
@@ -1655,10 +1821,10 @@
       <c r="F39">
         <v>2590</v>
       </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
       <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
         <v>2</v>
       </c>
     </row>
@@ -1688,13 +1854,19 @@
         <v>2399</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>0.09</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
         <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1723,13 +1895,19 @@
         <v>2399</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>0.09</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
         <v>2</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1754,10 +1932,10 @@
       <c r="F42">
         <v>2399</v>
       </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
       <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
         <v>2</v>
       </c>
     </row>
@@ -1787,14 +1965,20 @@
         <v>952</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>0.04</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>3</v>
       </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1822,14 +2006,20 @@
         <v>952</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>0.04</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>3</v>
       </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>12</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1853,12 +2043,12 @@
       <c r="F45">
         <v>952</v>
       </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
       <c r="I45">
         <v>3</v>
       </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1886,14 +2076,20 @@
         <v>818</v>
       </c>
       <c r="G46">
+        <v>0.04</v>
+      </c>
+      <c r="H46">
         <v>3</v>
-      </c>
-      <c r="H46">
-        <v>5</v>
       </c>
       <c r="I46">
         <v>5</v>
       </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1921,14 +2117,20 @@
         <v>818</v>
       </c>
       <c r="G47">
+        <v>0.04</v>
+      </c>
+      <c r="H47">
         <v>3</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
       </c>
       <c r="I47">
         <v>5</v>
       </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1952,12 +2154,12 @@
       <c r="F48">
         <v>818</v>
       </c>
-      <c r="H48">
-        <v>5</v>
-      </c>
       <c r="I48">
         <v>5</v>
       </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1985,7 +2187,7 @@
         <v>730</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -1993,6 +2195,12 @@
       <c r="I49">
         <v>4</v>
       </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2020,7 +2228,7 @@
         <v>730</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="H50">
         <v>4</v>
@@ -2028,6 +2236,12 @@
       <c r="I50">
         <v>4</v>
       </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2051,12 +2265,12 @@
       <c r="F51">
         <v>730</v>
       </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
       <c r="I51">
         <v>4</v>
       </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2084,14 +2298,20 @@
         <v>1571</v>
       </c>
       <c r="G52">
+        <v>0.08</v>
+      </c>
+      <c r="H52">
         <v>4</v>
-      </c>
-      <c r="H52">
-        <v>3</v>
       </c>
       <c r="I52">
         <v>3</v>
       </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2119,14 +2339,20 @@
         <v>1571</v>
       </c>
       <c r="G53">
+        <v>0.08</v>
+      </c>
+      <c r="H53">
         <v>4</v>
-      </c>
-      <c r="H53">
-        <v>3</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2150,12 +2376,12 @@
       <c r="F54">
         <v>1571</v>
       </c>
-      <c r="H54">
-        <v>3</v>
-      </c>
       <c r="I54">
         <v>3</v>
       </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2183,7 +2409,7 @@
         <v>1984</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>0.09</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -2191,6 +2417,12 @@
       <c r="I55">
         <v>3</v>
       </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2218,7 +2450,7 @@
         <v>1984</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>0.09</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -2226,6 +2458,12 @@
       <c r="I56">
         <v>3</v>
       </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2249,12 +2487,12 @@
       <c r="F57">
         <v>1984</v>
       </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
       <c r="I57">
         <v>3</v>
       </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2282,14 +2520,20 @@
         <v>10</v>
       </c>
       <c r="G58">
+        <v>0.05</v>
+      </c>
+      <c r="H58">
         <v>12</v>
-      </c>
-      <c r="H58">
-        <v>11</v>
       </c>
       <c r="I58">
         <v>11</v>
       </c>
+      <c r="J58">
+        <v>11</v>
+      </c>
+      <c r="K58">
+        <v>7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2317,14 +2561,20 @@
         <v>10</v>
       </c>
       <c r="G59">
+        <v>0.05</v>
+      </c>
+      <c r="H59">
         <v>12</v>
-      </c>
-      <c r="H59">
-        <v>11</v>
       </c>
       <c r="I59">
         <v>11</v>
       </c>
+      <c r="J59">
+        <v>11</v>
+      </c>
+      <c r="K59">
+        <v>7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2348,12 +2598,12 @@
       <c r="F60">
         <v>10</v>
       </c>
-      <c r="H60">
-        <v>13</v>
-      </c>
       <c r="I60">
         <v>13</v>
       </c>
+      <c r="J60">
+        <v>13</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2381,7 +2631,7 @@
         <v>17</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="H61">
         <v>10</v>
@@ -2389,6 +2639,12 @@
       <c r="I61">
         <v>10</v>
       </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2416,7 +2672,7 @@
         <v>17</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="H62">
         <v>10</v>
@@ -2424,6 +2680,12 @@
       <c r="I62">
         <v>10</v>
       </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2447,12 +2709,12 @@
       <c r="F63">
         <v>17</v>
       </c>
-      <c r="H63">
-        <v>11</v>
-      </c>
       <c r="I63">
         <v>11</v>
       </c>
+      <c r="J63">
+        <v>11</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2480,14 +2742,20 @@
         <v>60</v>
       </c>
       <c r="G64">
+        <v>0.04</v>
+      </c>
+      <c r="H64">
         <v>8</v>
-      </c>
-      <c r="H64">
-        <v>9</v>
       </c>
       <c r="I64">
         <v>9</v>
       </c>
+      <c r="J64">
+        <v>9</v>
+      </c>
+      <c r="K64">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2515,14 +2783,20 @@
         <v>60</v>
       </c>
       <c r="G65">
+        <v>0.04</v>
+      </c>
+      <c r="H65">
         <v>8</v>
-      </c>
-      <c r="H65">
-        <v>9</v>
       </c>
       <c r="I65">
         <v>9</v>
       </c>
+      <c r="J65">
+        <v>9</v>
+      </c>
+      <c r="K65">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2546,12 +2820,12 @@
       <c r="F66">
         <v>60</v>
       </c>
-      <c r="H66">
-        <v>11</v>
-      </c>
       <c r="I66">
         <v>11</v>
       </c>
+      <c r="J66">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2579,14 +2853,20 @@
         <v>98</v>
       </c>
       <c r="G67">
+        <v>0.04</v>
+      </c>
+      <c r="H67">
         <v>5</v>
-      </c>
-      <c r="H67">
-        <v>7</v>
       </c>
       <c r="I67">
         <v>7</v>
       </c>
+      <c r="J67">
+        <v>7</v>
+      </c>
+      <c r="K67">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2614,14 +2894,20 @@
         <v>98</v>
       </c>
       <c r="G68">
+        <v>0.04</v>
+      </c>
+      <c r="H68">
         <v>5</v>
-      </c>
-      <c r="H68">
-        <v>7</v>
       </c>
       <c r="I68">
         <v>7</v>
       </c>
+      <c r="J68">
+        <v>7</v>
+      </c>
+      <c r="K68">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2645,12 +2931,12 @@
       <c r="F69">
         <v>98</v>
       </c>
-      <c r="H69">
-        <v>8</v>
-      </c>
       <c r="I69">
         <v>8</v>
       </c>
+      <c r="J69">
+        <v>8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2678,7 +2964,7 @@
         <v>413</v>
       </c>
       <c r="G70">
-        <v>6</v>
+        <v>0.08</v>
       </c>
       <c r="H70">
         <v>6</v>
@@ -2686,6 +2972,12 @@
       <c r="I70">
         <v>6</v>
       </c>
+      <c r="J70">
+        <v>6</v>
+      </c>
+      <c r="K70">
+        <v>8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2713,7 +3005,7 @@
         <v>413</v>
       </c>
       <c r="G71">
-        <v>6</v>
+        <v>0.08</v>
       </c>
       <c r="H71">
         <v>6</v>
@@ -2721,6 +3013,12 @@
       <c r="I71">
         <v>6</v>
       </c>
+      <c r="J71">
+        <v>6</v>
+      </c>
+      <c r="K71">
+        <v>8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2744,12 +3042,12 @@
       <c r="F72">
         <v>413</v>
       </c>
-      <c r="H72">
-        <v>6</v>
-      </c>
       <c r="I72">
         <v>6</v>
       </c>
+      <c r="J72">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2777,7 +3075,7 @@
         <v>444</v>
       </c>
       <c r="G73">
-        <v>8</v>
+        <v>0.09</v>
       </c>
       <c r="H73">
         <v>8</v>
@@ -2785,6 +3083,12 @@
       <c r="I73">
         <v>8</v>
       </c>
+      <c r="J73">
+        <v>8</v>
+      </c>
+      <c r="K73">
+        <v>6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2812,7 +3116,7 @@
         <v>444</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>0.09</v>
       </c>
       <c r="H74">
         <v>8</v>
@@ -2820,6 +3124,12 @@
       <c r="I74">
         <v>8</v>
       </c>
+      <c r="J74">
+        <v>8</v>
+      </c>
+      <c r="K74">
+        <v>6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2843,12 +3153,12 @@
       <c r="F75">
         <v>444</v>
       </c>
-      <c r="H75">
-        <v>8</v>
-      </c>
       <c r="I75">
         <v>8</v>
       </c>
+      <c r="J75">
+        <v>8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2876,13 +3186,19 @@
         <v>1811</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>2</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -2911,13 +3227,19 @@
         <v>1811</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>2</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -2946,7 +3268,7 @@
         <v>13</v>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>0.28</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -2954,6 +3276,12 @@
       <c r="I78">
         <v>5</v>
       </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2981,7 +3309,7 @@
         <v>13</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>0.28</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -2989,6 +3317,12 @@
       <c r="I79">
         <v>5</v>
       </c>
+      <c r="J79">
+        <v>5</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3016,12 +3350,18 @@
         <v>13</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0.28</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
         <v>2</v>
       </c>
     </row>
@@ -3047,10 +3387,10 @@
       <c r="F81">
         <v>1824</v>
       </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
       <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
         <v>2</v>
       </c>
     </row>
@@ -3080,13 +3420,19 @@
         <v>2041</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -3115,13 +3461,19 @@
         <v>2041</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
         <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -3150,14 +3502,20 @@
         <v>11</v>
       </c>
       <c r="G84">
+        <v>0.24</v>
+      </c>
+      <c r="H84">
         <v>4</v>
-      </c>
-      <c r="H84">
-        <v>5</v>
       </c>
       <c r="I84">
         <v>5</v>
       </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3185,14 +3543,20 @@
         <v>11</v>
       </c>
       <c r="G85">
+        <v>0.24</v>
+      </c>
+      <c r="H85">
         <v>4</v>
-      </c>
-      <c r="H85">
-        <v>5</v>
       </c>
       <c r="I85">
         <v>5</v>
       </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3220,12 +3584,18 @@
         <v>11</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
         <v>2</v>
       </c>
     </row>
@@ -3251,10 +3621,10 @@
       <c r="F87">
         <v>2052</v>
       </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
       <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
         <v>1</v>
       </c>
     </row>
@@ -3284,13 +3654,19 @@
         <v>2318</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
         <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -3319,13 +3695,19 @@
         <v>2318</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
         <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -3354,7 +3736,7 @@
         <v>9</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -3362,6 +3744,12 @@
       <c r="I90">
         <v>3</v>
       </c>
+      <c r="J90">
+        <v>3</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3389,7 +3777,7 @@
         <v>9</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -3397,6 +3785,12 @@
       <c r="I91">
         <v>3</v>
       </c>
+      <c r="J91">
+        <v>3</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3424,12 +3818,18 @@
         <v>9</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
         <v>1</v>
       </c>
     </row>
@@ -3455,10 +3855,10 @@
       <c r="F93">
         <v>2327</v>
       </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
       <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
         <v>1</v>
       </c>
     </row>
@@ -3488,13 +3888,19 @@
         <v>2735</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -3523,13 +3929,19 @@
         <v>2735</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -3558,7 +3970,7 @@
         <v>4</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -3566,6 +3978,12 @@
       <c r="I96">
         <v>3</v>
       </c>
+      <c r="J96">
+        <v>3</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3593,7 +4011,7 @@
         <v>4</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -3601,6 +4019,12 @@
       <c r="I97">
         <v>3</v>
       </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3628,12 +4052,18 @@
         <v>4</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
         <v>1</v>
       </c>
     </row>
@@ -3659,10 +4089,10 @@
       <c r="F99">
         <v>2739</v>
       </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
       <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
         <v>1</v>
       </c>
     </row>
@@ -3692,12 +4122,18 @@
         <v>3313</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
         <v>1</v>
       </c>
     </row>
@@ -3727,12 +4163,18 @@
         <v>3313</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
         <v>1</v>
       </c>
     </row>
@@ -3762,7 +4204,7 @@
         <v>17</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -3770,6 +4212,12 @@
       <c r="I102">
         <v>4</v>
       </c>
+      <c r="J102">
+        <v>4</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3797,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="H103">
         <v>4</v>
@@ -3805,6 +4253,12 @@
       <c r="I103">
         <v>4</v>
       </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3832,12 +4286,18 @@
         <v>17</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
         <v>1</v>
       </c>
     </row>
@@ -3863,10 +4323,10 @@
       <c r="F105">
         <v>3330</v>
       </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
       <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
         <v>1</v>
       </c>
     </row>
@@ -3896,7 +4356,7 @@
         <v>84</v>
       </c>
       <c r="G106">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="H106">
         <v>6</v>
@@ -3904,6 +4364,12 @@
       <c r="I106">
         <v>6</v>
       </c>
+      <c r="J106">
+        <v>6</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3931,7 +4397,7 @@
         <v>84</v>
       </c>
       <c r="G107">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="H107">
         <v>6</v>
@@ -3939,6 +4405,12 @@
       <c r="I107">
         <v>6</v>
       </c>
+      <c r="J107">
+        <v>6</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3962,12 +4434,12 @@
       <c r="F108">
         <v>84</v>
       </c>
-      <c r="H108">
-        <v>8</v>
-      </c>
       <c r="I108">
         <v>8</v>
       </c>
+      <c r="J108">
+        <v>8</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3995,14 +4467,20 @@
         <v>72</v>
       </c>
       <c r="G109">
+        <v>0.06</v>
+      </c>
+      <c r="H109">
         <v>9</v>
-      </c>
-      <c r="H109">
-        <v>7</v>
       </c>
       <c r="I109">
         <v>7</v>
       </c>
+      <c r="J109">
+        <v>7</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4030,14 +4508,20 @@
         <v>72</v>
       </c>
       <c r="G110">
+        <v>0.06</v>
+      </c>
+      <c r="H110">
         <v>9</v>
-      </c>
-      <c r="H110">
-        <v>7</v>
       </c>
       <c r="I110">
         <v>7</v>
       </c>
+      <c r="J110">
+        <v>7</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4061,12 +4545,12 @@
       <c r="F111">
         <v>72</v>
       </c>
-      <c r="H111">
-        <v>9</v>
-      </c>
       <c r="I111">
         <v>9</v>
       </c>
+      <c r="J111">
+        <v>9</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4094,7 +4578,7 @@
         <v>63</v>
       </c>
       <c r="G112">
-        <v>9</v>
+        <v>0.06</v>
       </c>
       <c r="H112">
         <v>9</v>
@@ -4102,6 +4586,12 @@
       <c r="I112">
         <v>9</v>
       </c>
+      <c r="J112">
+        <v>9</v>
+      </c>
+      <c r="K112">
+        <v>6</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4129,7 +4619,7 @@
         <v>63</v>
       </c>
       <c r="G113">
-        <v>9</v>
+        <v>0.06</v>
       </c>
       <c r="H113">
         <v>9</v>
@@ -4137,6 +4627,12 @@
       <c r="I113">
         <v>9</v>
       </c>
+      <c r="J113">
+        <v>9</v>
+      </c>
+      <c r="K113">
+        <v>6</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4160,12 +4656,12 @@
       <c r="F114">
         <v>63</v>
       </c>
-      <c r="H114">
-        <v>9</v>
-      </c>
       <c r="I114">
         <v>9</v>
       </c>
+      <c r="J114">
+        <v>9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4193,7 +4689,7 @@
         <v>91</v>
       </c>
       <c r="G115">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="H115">
         <v>9</v>
@@ -4201,6 +4697,12 @@
       <c r="I115">
         <v>9</v>
       </c>
+      <c r="J115">
+        <v>9</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4228,7 +4730,7 @@
         <v>91</v>
       </c>
       <c r="G116">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="H116">
         <v>9</v>
@@ -4236,6 +4738,12 @@
       <c r="I116">
         <v>9</v>
       </c>
+      <c r="J116">
+        <v>9</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4259,12 +4767,12 @@
       <c r="F117">
         <v>91</v>
       </c>
-      <c r="H117">
-        <v>10</v>
-      </c>
       <c r="I117">
         <v>10</v>
       </c>
+      <c r="J117">
+        <v>10</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4292,7 +4800,7 @@
         <v>924</v>
       </c>
       <c r="G118">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="H118">
         <v>6</v>
@@ -4300,6 +4808,12 @@
       <c r="I118">
         <v>6</v>
       </c>
+      <c r="J118">
+        <v>6</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4327,7 +4841,7 @@
         <v>924</v>
       </c>
       <c r="G119">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="H119">
         <v>6</v>
@@ -4335,6 +4849,12 @@
       <c r="I119">
         <v>6</v>
       </c>
+      <c r="J119">
+        <v>6</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4358,12 +4878,12 @@
       <c r="F120">
         <v>924</v>
       </c>
-      <c r="H120">
-        <v>6</v>
-      </c>
       <c r="I120">
         <v>6</v>
       </c>
+      <c r="J120">
+        <v>6</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4391,7 +4911,7 @@
         <v>33</v>
       </c>
       <c r="G121">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="H121">
         <v>9</v>
@@ -4399,6 +4919,12 @@
       <c r="I121">
         <v>9</v>
       </c>
+      <c r="J121">
+        <v>9</v>
+      </c>
+      <c r="K121">
+        <v>7</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4426,7 +4952,7 @@
         <v>33</v>
       </c>
       <c r="G122">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="H122">
         <v>9</v>
@@ -4434,6 +4960,12 @@
       <c r="I122">
         <v>9</v>
       </c>
+      <c r="J122">
+        <v>9</v>
+      </c>
+      <c r="K122">
+        <v>7</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4461,13 +4993,19 @@
         <v>112</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
         <v>2</v>
+      </c>
+      <c r="J123">
+        <v>2</v>
+      </c>
+      <c r="K123">
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -4496,12 +5034,18 @@
         <v>19</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
         <v>1</v>
       </c>
     </row>
@@ -4531,12 +5075,18 @@
         <v>19</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
         <v>1</v>
       </c>
     </row>
@@ -4566,13 +5116,19 @@
         <v>91</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H126">
         <v>2</v>
       </c>
       <c r="I126">
         <v>2</v>
+      </c>
+      <c r="J126">
+        <v>2</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -4601,13 +5157,19 @@
         <v>91</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
         <v>2</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4632,12 +5194,12 @@
       <c r="F128">
         <v>143</v>
       </c>
-      <c r="H128">
-        <v>7</v>
-      </c>
       <c r="I128">
         <v>7</v>
       </c>
+      <c r="J128">
+        <v>7</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4665,7 +5227,7 @@
         <v>38</v>
       </c>
       <c r="G129">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="H129">
         <v>10</v>
@@ -4673,6 +5235,12 @@
       <c r="I129">
         <v>10</v>
       </c>
+      <c r="J129">
+        <v>10</v>
+      </c>
+      <c r="K129">
+        <v>6</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4700,7 +5268,7 @@
         <v>38</v>
       </c>
       <c r="G130">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="H130">
         <v>10</v>
@@ -4708,6 +5276,12 @@
       <c r="I130">
         <v>10</v>
       </c>
+      <c r="J130">
+        <v>10</v>
+      </c>
+      <c r="K130">
+        <v>6</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4735,13 +5309,19 @@
         <v>124</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -4770,12 +5350,18 @@
         <v>23</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
         <v>1</v>
       </c>
     </row>
@@ -4805,12 +5391,18 @@
         <v>23</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
         <v>1</v>
       </c>
     </row>
@@ -4840,13 +5432,19 @@
         <v>102</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
         <v>2</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -4875,13 +5473,19 @@
         <v>102</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
         <v>2</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -4906,12 +5510,12 @@
       <c r="F136">
         <v>163</v>
       </c>
-      <c r="H136">
-        <v>7</v>
-      </c>
       <c r="I136">
         <v>7</v>
       </c>
+      <c r="J136">
+        <v>7</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4939,7 +5543,7 @@
         <v>135</v>
       </c>
       <c r="G137">
-        <v>6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H137">
         <v>6</v>
@@ -4947,6 +5551,12 @@
       <c r="I137">
         <v>6</v>
       </c>
+      <c r="J137">
+        <v>6</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4974,7 +5584,7 @@
         <v>135</v>
       </c>
       <c r="G138">
-        <v>6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H138">
         <v>6</v>
@@ -4982,6 +5592,12 @@
       <c r="I138">
         <v>6</v>
       </c>
+      <c r="J138">
+        <v>6</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5009,12 +5625,18 @@
         <v>84</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
         <v>2</v>
       </c>
     </row>
@@ -5044,12 +5666,18 @@
         <v>33</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
         <v>1</v>
       </c>
     </row>
@@ -5079,12 +5707,18 @@
         <v>33</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
         <v>1</v>
       </c>
     </row>
@@ -5114,12 +5748,18 @@
         <v>51</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
         <v>2</v>
       </c>
     </row>
@@ -5149,13 +5789,19 @@
         <v>51</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
         <v>2</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -5180,12 +5826,12 @@
       <c r="F144">
         <v>219</v>
       </c>
-      <c r="H144">
-        <v>5</v>
-      </c>
       <c r="I144">
         <v>5</v>
       </c>
+      <c r="J144">
+        <v>5</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5213,7 +5859,7 @@
         <v>126</v>
       </c>
       <c r="G145">
-        <v>8</v>
+        <v>0.06</v>
       </c>
       <c r="H145">
         <v>8</v>
@@ -5221,6 +5867,12 @@
       <c r="I145">
         <v>8</v>
       </c>
+      <c r="J145">
+        <v>8</v>
+      </c>
+      <c r="K145">
+        <v>11</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5248,7 +5900,7 @@
         <v>126</v>
       </c>
       <c r="G146">
-        <v>8</v>
+        <v>0.06</v>
       </c>
       <c r="H146">
         <v>8</v>
@@ -5256,6 +5908,12 @@
       <c r="I146">
         <v>8</v>
       </c>
+      <c r="J146">
+        <v>8</v>
+      </c>
+      <c r="K146">
+        <v>11</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5283,12 +5941,18 @@
         <v>52</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H147">
         <v>2</v>
       </c>
       <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147">
         <v>2</v>
       </c>
     </row>
@@ -5318,12 +5982,18 @@
         <v>52</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H148">
         <v>2</v>
       </c>
       <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="K148">
         <v>2</v>
       </c>
     </row>
@@ -5353,13 +6023,19 @@
         <v>52</v>
       </c>
       <c r="G149">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H149">
         <v>2</v>
       </c>
       <c r="I149">
         <v>2</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -5384,12 +6060,12 @@
       <c r="F150">
         <v>178</v>
       </c>
-      <c r="H150">
-        <v>9</v>
-      </c>
       <c r="I150">
         <v>9</v>
       </c>
+      <c r="J150">
+        <v>9</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5417,14 +6093,20 @@
         <v>152</v>
       </c>
       <c r="G151">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H151">
         <v>9</v>
-      </c>
-      <c r="H151">
-        <v>10</v>
       </c>
       <c r="I151">
         <v>10</v>
       </c>
+      <c r="J151">
+        <v>10</v>
+      </c>
+      <c r="K151">
+        <v>12</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5452,14 +6134,20 @@
         <v>152</v>
       </c>
       <c r="G152">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H152">
         <v>9</v>
-      </c>
-      <c r="H152">
-        <v>10</v>
       </c>
       <c r="I152">
         <v>10</v>
       </c>
+      <c r="J152">
+        <v>10</v>
+      </c>
+      <c r="K152">
+        <v>12</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5487,7 +6175,7 @@
         <v>51</v>
       </c>
       <c r="G153">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -5495,6 +6183,12 @@
       <c r="I153">
         <v>3</v>
       </c>
+      <c r="J153">
+        <v>3</v>
+      </c>
+      <c r="K153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5522,7 +6216,7 @@
         <v>51</v>
       </c>
       <c r="G154">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -5530,6 +6224,12 @@
       <c r="I154">
         <v>3</v>
       </c>
+      <c r="J154">
+        <v>3</v>
+      </c>
+      <c r="K154">
+        <v>4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5557,7 +6257,7 @@
         <v>51</v>
       </c>
       <c r="G155">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -5565,6 +6265,12 @@
       <c r="I155">
         <v>3</v>
       </c>
+      <c r="J155">
+        <v>3</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5588,12 +6294,12 @@
       <c r="F156">
         <v>203</v>
       </c>
-      <c r="H156">
-        <v>10</v>
-      </c>
       <c r="I156">
         <v>10</v>
       </c>
+      <c r="J156">
+        <v>10</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5621,7 +6327,7 @@
         <v>3</v>
       </c>
       <c r="G157">
-        <v>5</v>
+        <v>0.11</v>
       </c>
       <c r="H157">
         <v>5</v>
@@ -5629,6 +6335,12 @@
       <c r="I157">
         <v>5</v>
       </c>
+      <c r="J157">
+        <v>5</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5656,7 +6368,7 @@
         <v>3</v>
       </c>
       <c r="G158">
-        <v>5</v>
+        <v>0.11</v>
       </c>
       <c r="H158">
         <v>5</v>
@@ -5664,6 +6376,12 @@
       <c r="I158">
         <v>5</v>
       </c>
+      <c r="J158">
+        <v>5</v>
+      </c>
+      <c r="K158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5691,7 +6409,7 @@
         <v>3</v>
       </c>
       <c r="G159">
-        <v>4</v>
+        <v>0.11</v>
       </c>
       <c r="H159">
         <v>4</v>
@@ -5699,6 +6417,12 @@
       <c r="I159">
         <v>4</v>
       </c>
+      <c r="J159">
+        <v>4</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5722,12 +6446,12 @@
       <c r="F160">
         <v>3</v>
       </c>
-      <c r="H160">
-        <v>17</v>
-      </c>
       <c r="I160">
         <v>17</v>
       </c>
+      <c r="J160">
+        <v>17</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5748,7 +6472,7 @@
       <c r="D161">
         <v>6</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>15</v>
       </c>
     </row>
@@ -5771,7 +6495,7 @@
       <c r="D162">
         <v>6</v>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>1</v>
       </c>
     </row>
@@ -5794,7 +6518,7 @@
       <c r="D163">
         <v>7</v>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>15</v>
       </c>
     </row>
@@ -5817,7 +6541,7 @@
       <c r="D164">
         <v>7</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>1</v>
       </c>
     </row>
@@ -5847,7 +6571,7 @@
         <v>778</v>
       </c>
       <c r="G165">
-        <v>4</v>
+        <v>0.06</v>
       </c>
       <c r="H165">
         <v>4</v>
@@ -5855,6 +6579,12 @@
       <c r="I165">
         <v>4</v>
       </c>
+      <c r="J165">
+        <v>4</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5882,7 +6612,7 @@
         <v>778</v>
       </c>
       <c r="G166">
-        <v>4</v>
+        <v>0.06</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -5890,6 +6620,12 @@
       <c r="I166">
         <v>4</v>
       </c>
+      <c r="J166">
+        <v>4</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5913,12 +6649,12 @@
       <c r="F167">
         <v>778</v>
       </c>
-      <c r="H167">
-        <v>4</v>
-      </c>
       <c r="I167">
         <v>4</v>
       </c>
+      <c r="J167">
+        <v>4</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5946,7 +6682,7 @@
         <v>941</v>
       </c>
       <c r="G168">
-        <v>4</v>
+        <v>0.06</v>
       </c>
       <c r="H168">
         <v>4</v>
@@ -5954,6 +6690,12 @@
       <c r="I168">
         <v>4</v>
       </c>
+      <c r="J168">
+        <v>4</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5981,7 +6723,7 @@
         <v>941</v>
       </c>
       <c r="G169">
-        <v>4</v>
+        <v>0.06</v>
       </c>
       <c r="H169">
         <v>4</v>
@@ -5989,6 +6731,12 @@
       <c r="I169">
         <v>4</v>
       </c>
+      <c r="J169">
+        <v>4</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6012,12 +6760,12 @@
       <c r="F170">
         <v>941</v>
       </c>
-      <c r="H170">
-        <v>4</v>
-      </c>
       <c r="I170">
         <v>4</v>
       </c>
+      <c r="J170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6045,12 +6793,18 @@
         <v>1284</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <v>2</v>
+      </c>
+      <c r="K171">
         <v>2</v>
       </c>
     </row>
@@ -6080,12 +6834,18 @@
         <v>1284</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172">
+        <v>2</v>
+      </c>
+      <c r="J172">
+        <v>2</v>
+      </c>
+      <c r="K172">
         <v>2</v>
       </c>
     </row>
@@ -6111,10 +6871,10 @@
       <c r="F173">
         <v>1284</v>
       </c>
-      <c r="H173">
-        <v>2</v>
-      </c>
       <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173">
         <v>2</v>
       </c>
     </row>
@@ -6144,14 +6904,20 @@
         <v>1090</v>
       </c>
       <c r="G174">
+        <v>0.06</v>
+      </c>
+      <c r="H174">
         <v>3</v>
-      </c>
-      <c r="H174">
-        <v>4</v>
       </c>
       <c r="I174">
         <v>4</v>
       </c>
+      <c r="J174">
+        <v>4</v>
+      </c>
+      <c r="K174">
+        <v>11</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6179,14 +6945,20 @@
         <v>1090</v>
       </c>
       <c r="G175">
+        <v>0.06</v>
+      </c>
+      <c r="H175">
         <v>3</v>
-      </c>
-      <c r="H175">
-        <v>4</v>
       </c>
       <c r="I175">
         <v>4</v>
       </c>
+      <c r="J175">
+        <v>4</v>
+      </c>
+      <c r="K175">
+        <v>11</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6210,12 +6982,12 @@
       <c r="F176">
         <v>1090</v>
       </c>
-      <c r="H176">
-        <v>4</v>
-      </c>
       <c r="I176">
         <v>4</v>
       </c>
+      <c r="J176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6243,7 +7015,7 @@
         <v>1306</v>
       </c>
       <c r="G177">
-        <v>4</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H177">
         <v>4</v>
@@ -6251,6 +7023,12 @@
       <c r="I177">
         <v>4</v>
       </c>
+      <c r="J177">
+        <v>4</v>
+      </c>
+      <c r="K177">
+        <v>12</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6278,7 +7056,7 @@
         <v>1306</v>
       </c>
       <c r="G178">
-        <v>4</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H178">
         <v>4</v>
@@ -6286,6 +7064,12 @@
       <c r="I178">
         <v>4</v>
       </c>
+      <c r="J178">
+        <v>4</v>
+      </c>
+      <c r="K178">
+        <v>12</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6309,12 +7093,12 @@
       <c r="F179">
         <v>1306</v>
       </c>
-      <c r="H179">
-        <v>4</v>
-      </c>
       <c r="I179">
         <v>4</v>
       </c>
+      <c r="J179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6342,7 +7126,7 @@
         <v>39</v>
       </c>
       <c r="G180">
-        <v>8</v>
+        <v>0.06</v>
       </c>
       <c r="H180">
         <v>8</v>
@@ -6350,6 +7134,12 @@
       <c r="I180">
         <v>8</v>
       </c>
+      <c r="J180">
+        <v>8</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6377,7 +7167,7 @@
         <v>39</v>
       </c>
       <c r="G181">
-        <v>8</v>
+        <v>0.06</v>
       </c>
       <c r="H181">
         <v>8</v>
@@ -6385,6 +7175,12 @@
       <c r="I181">
         <v>8</v>
       </c>
+      <c r="J181">
+        <v>8</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6412,13 +7208,19 @@
         <v>128</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182">
         <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -6447,13 +7249,19 @@
         <v>128</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
       <c r="I183">
         <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -6482,12 +7290,18 @@
         <v>128</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
         <v>1</v>
       </c>
     </row>
@@ -6513,12 +7327,12 @@
       <c r="F185">
         <v>168</v>
       </c>
-      <c r="H185">
-        <v>6</v>
-      </c>
       <c r="I185">
         <v>6</v>
       </c>
+      <c r="J185">
+        <v>6</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6546,14 +7360,20 @@
         <v>38</v>
       </c>
       <c r="G186">
+        <v>0.05</v>
+      </c>
+      <c r="H186">
         <v>11</v>
-      </c>
-      <c r="H186">
-        <v>10</v>
       </c>
       <c r="I186">
         <v>10</v>
       </c>
+      <c r="J186">
+        <v>10</v>
+      </c>
+      <c r="K186">
+        <v>6</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6581,14 +7401,20 @@
         <v>38</v>
       </c>
       <c r="G187">
+        <v>0.05</v>
+      </c>
+      <c r="H187">
         <v>11</v>
-      </c>
-      <c r="H187">
-        <v>10</v>
       </c>
       <c r="I187">
         <v>10</v>
       </c>
+      <c r="J187">
+        <v>10</v>
+      </c>
+      <c r="K187">
+        <v>6</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6616,13 +7442,19 @@
         <v>122</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>0.06</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188">
         <v>2</v>
+      </c>
+      <c r="J188">
+        <v>2</v>
+      </c>
+      <c r="K188">
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -6651,13 +7483,19 @@
         <v>122</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
         <v>1</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -6686,12 +7524,18 @@
         <v>122</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
         <v>1</v>
       </c>
     </row>
@@ -6717,12 +7561,12 @@
       <c r="F191">
         <v>159</v>
       </c>
-      <c r="H191">
-        <v>8</v>
-      </c>
       <c r="I191">
         <v>8</v>
       </c>
+      <c r="J191">
+        <v>8</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6750,12 +7594,18 @@
         <v>5</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
         <v>1</v>
       </c>
     </row>
@@ -6785,12 +7635,18 @@
         <v>5</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="H193">
         <v>1</v>
       </c>
       <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
         <v>1</v>
       </c>
     </row>
@@ -6820,14 +7676,20 @@
         <v>64</v>
       </c>
       <c r="G194">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H194">
         <v>10</v>
-      </c>
-      <c r="H194">
-        <v>8</v>
       </c>
       <c r="I194">
         <v>8</v>
       </c>
+      <c r="J194">
+        <v>8</v>
+      </c>
+      <c r="K194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6855,14 +7717,20 @@
         <v>64</v>
       </c>
       <c r="G195">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H195">
         <v>10</v>
-      </c>
-      <c r="H195">
-        <v>8</v>
       </c>
       <c r="I195">
         <v>8</v>
       </c>
+      <c r="J195">
+        <v>8</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6890,13 +7758,19 @@
         <v>107</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
         <v>1</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -6925,13 +7799,19 @@
         <v>107</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
         <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -6960,12 +7840,18 @@
         <v>107</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
         <v>1</v>
       </c>
     </row>
@@ -6991,12 +7877,12 @@
       <c r="F199">
         <v>176</v>
       </c>
-      <c r="H199">
-        <v>6</v>
-      </c>
       <c r="I199">
         <v>6</v>
       </c>
+      <c r="J199">
+        <v>6</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7024,12 +7910,18 @@
         <v>10</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="H200">
         <v>1</v>
       </c>
       <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
         <v>1</v>
       </c>
     </row>
@@ -7059,12 +7951,18 @@
         <v>10</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
         <v>1</v>
       </c>
     </row>
@@ -7094,7 +7992,7 @@
         <v>28</v>
       </c>
       <c r="G202">
-        <v>10</v>
+        <v>0.06</v>
       </c>
       <c r="H202">
         <v>10</v>
@@ -7102,6 +8000,12 @@
       <c r="I202">
         <v>10</v>
       </c>
+      <c r="J202">
+        <v>10</v>
+      </c>
+      <c r="K202">
+        <v>11</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7129,7 +8033,7 @@
         <v>28</v>
       </c>
       <c r="G203">
-        <v>10</v>
+        <v>0.06</v>
       </c>
       <c r="H203">
         <v>10</v>
@@ -7137,6 +8041,12 @@
       <c r="I203">
         <v>10</v>
       </c>
+      <c r="J203">
+        <v>10</v>
+      </c>
+      <c r="K203">
+        <v>11</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7164,13 +8074,19 @@
         <v>143</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H204">
         <v>1</v>
       </c>
       <c r="I204">
         <v>1</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -7199,13 +8115,19 @@
         <v>143</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
       <c r="I205">
         <v>1</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7234,12 +8156,18 @@
         <v>143</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H206">
         <v>1</v>
       </c>
       <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
         <v>1</v>
       </c>
     </row>
@@ -7265,12 +8193,12 @@
       <c r="F207">
         <v>180</v>
       </c>
-      <c r="H207">
-        <v>8</v>
-      </c>
       <c r="I207">
         <v>8</v>
       </c>
+      <c r="J207">
+        <v>8</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7298,12 +8226,18 @@
         <v>11</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>3.67</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
         <v>1</v>
       </c>
     </row>
@@ -7333,12 +8267,18 @@
         <v>11</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>3.67</v>
       </c>
       <c r="H209">
         <v>1</v>
       </c>
       <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
         <v>1</v>
       </c>
     </row>
@@ -7368,14 +8308,20 @@
         <v>26</v>
       </c>
       <c r="G210">
+        <v>0.06</v>
+      </c>
+      <c r="H210">
         <v>12</v>
-      </c>
-      <c r="H210">
-        <v>13</v>
       </c>
       <c r="I210">
         <v>13</v>
       </c>
+      <c r="J210">
+        <v>13</v>
+      </c>
+      <c r="K210">
+        <v>14</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7403,14 +8349,20 @@
         <v>26</v>
       </c>
       <c r="G211">
+        <v>0.06</v>
+      </c>
+      <c r="H211">
         <v>12</v>
-      </c>
-      <c r="H211">
-        <v>13</v>
       </c>
       <c r="I211">
         <v>13</v>
       </c>
+      <c r="J211">
+        <v>13</v>
+      </c>
+      <c r="K211">
+        <v>14</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7438,13 +8390,19 @@
         <v>146</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>2</v>
+      </c>
+      <c r="J212">
+        <v>2</v>
+      </c>
+      <c r="K212">
+        <v>4</v>
       </c>
     </row>
     <row r="213">
@@ -7473,13 +8431,19 @@
         <v>146</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>2</v>
+      </c>
+      <c r="J213">
+        <v>2</v>
+      </c>
+      <c r="K213">
+        <v>4</v>
       </c>
     </row>
     <row r="214">
@@ -7508,13 +8472,19 @@
         <v>146</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>2</v>
+      </c>
+      <c r="J214">
+        <v>2</v>
+      </c>
+      <c r="K214">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -7539,12 +8509,12 @@
       <c r="F215">
         <v>183</v>
       </c>
-      <c r="H215">
-        <v>11</v>
-      </c>
       <c r="I215">
         <v>11</v>
       </c>
+      <c r="J215">
+        <v>11</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7572,13 +8542,19 @@
         <v>380</v>
       </c>
       <c r="G216">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216">
         <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -7607,13 +8583,19 @@
         <v>380</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217">
         <v>1</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -7642,12 +8624,18 @@
         <v>380</v>
       </c>
       <c r="G218">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
         <v>1</v>
       </c>
     </row>
@@ -7673,12 +8661,12 @@
       <c r="F219">
         <v>380</v>
       </c>
-      <c r="H219">
-        <v>9</v>
-      </c>
       <c r="I219">
         <v>9</v>
       </c>
+      <c r="J219">
+        <v>9</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7706,7 +8694,7 @@
         <v>10</v>
       </c>
       <c r="G220">
-        <v>11</v>
+        <v>0.05</v>
       </c>
       <c r="H220">
         <v>11</v>
@@ -7714,6 +8702,12 @@
       <c r="I220">
         <v>11</v>
       </c>
+      <c r="J220">
+        <v>11</v>
+      </c>
+      <c r="K220">
+        <v>7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7741,7 +8735,7 @@
         <v>10</v>
       </c>
       <c r="G221">
-        <v>11</v>
+        <v>0.05</v>
       </c>
       <c r="H221">
         <v>11</v>
@@ -7749,6 +8743,12 @@
       <c r="I221">
         <v>11</v>
       </c>
+      <c r="J221">
+        <v>11</v>
+      </c>
+      <c r="K221">
+        <v>7</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7776,7 +8776,7 @@
         <v>50</v>
       </c>
       <c r="G222">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H222">
         <v>3</v>
@@ -7784,6 +8784,12 @@
       <c r="I222">
         <v>3</v>
       </c>
+      <c r="J222">
+        <v>3</v>
+      </c>
+      <c r="K222">
+        <v>3</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7811,7 +8817,7 @@
         <v>50</v>
       </c>
       <c r="G223">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H223">
         <v>3</v>
@@ -7819,6 +8825,12 @@
       <c r="I223">
         <v>3</v>
       </c>
+      <c r="J223">
+        <v>3</v>
+      </c>
+      <c r="K223">
+        <v>3</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7846,7 +8858,7 @@
         <v>50</v>
       </c>
       <c r="G224">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -7854,6 +8866,12 @@
       <c r="I224">
         <v>3</v>
       </c>
+      <c r="J224">
+        <v>3</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7877,12 +8895,12 @@
       <c r="F225">
         <v>60</v>
       </c>
-      <c r="H225">
-        <v>10</v>
-      </c>
       <c r="I225">
         <v>10</v>
       </c>
+      <c r="J225">
+        <v>10</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7910,7 +8928,7 @@
         <v>170</v>
       </c>
       <c r="G226">
-        <v>6</v>
+        <v>0.04</v>
       </c>
       <c r="H226">
         <v>6</v>
@@ -7918,6 +8936,12 @@
       <c r="I226">
         <v>6</v>
       </c>
+      <c r="J226">
+        <v>6</v>
+      </c>
+      <c r="K226">
+        <v>9</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7945,7 +8969,7 @@
         <v>170</v>
       </c>
       <c r="G227">
-        <v>6</v>
+        <v>0.04</v>
       </c>
       <c r="H227">
         <v>6</v>
@@ -7953,6 +8977,12 @@
       <c r="I227">
         <v>6</v>
       </c>
+      <c r="J227">
+        <v>6</v>
+      </c>
+      <c r="K227">
+        <v>9</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7980,7 +9010,7 @@
         <v>47</v>
       </c>
       <c r="G228">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H228">
         <v>3</v>
@@ -7988,6 +9018,12 @@
       <c r="I228">
         <v>3</v>
       </c>
+      <c r="J228">
+        <v>3</v>
+      </c>
+      <c r="K228">
+        <v>3</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8015,7 +9051,7 @@
         <v>47</v>
       </c>
       <c r="G229">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H229">
         <v>3</v>
@@ -8023,6 +9059,12 @@
       <c r="I229">
         <v>3</v>
       </c>
+      <c r="J229">
+        <v>3</v>
+      </c>
+      <c r="K229">
+        <v>3</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8050,7 +9092,7 @@
         <v>47</v>
       </c>
       <c r="G230">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="H230">
         <v>3</v>
@@ -8058,6 +9100,12 @@
       <c r="I230">
         <v>3</v>
       </c>
+      <c r="J230">
+        <v>3</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8081,12 +9129,12 @@
       <c r="F231">
         <v>218</v>
       </c>
-      <c r="H231">
-        <v>6</v>
-      </c>
       <c r="I231">
         <v>6</v>
       </c>
+      <c r="J231">
+        <v>6</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -8114,7 +9162,7 @@
         <v>721</v>
       </c>
       <c r="G232">
-        <v>7</v>
+        <v>0.09</v>
       </c>
       <c r="H232">
         <v>7</v>
@@ -8122,6 +9170,12 @@
       <c r="I232">
         <v>7</v>
       </c>
+      <c r="J232">
+        <v>7</v>
+      </c>
+      <c r="K232">
+        <v>6</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -8149,7 +9203,7 @@
         <v>721</v>
       </c>
       <c r="G233">
-        <v>7</v>
+        <v>0.09</v>
       </c>
       <c r="H233">
         <v>7</v>
@@ -8157,6 +9211,12 @@
       <c r="I233">
         <v>7</v>
       </c>
+      <c r="J233">
+        <v>7</v>
+      </c>
+      <c r="K233">
+        <v>6</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -8180,12 +9240,12 @@
       <c r="F234">
         <v>721</v>
       </c>
-      <c r="H234">
-        <v>7</v>
-      </c>
       <c r="I234">
         <v>7</v>
       </c>
+      <c r="J234">
+        <v>7</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -8213,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="G235">
-        <v>13</v>
+        <v>0.06</v>
       </c>
       <c r="H235">
         <v>13</v>
@@ -8221,6 +9281,12 @@
       <c r="I235">
         <v>13</v>
       </c>
+      <c r="J235">
+        <v>13</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -8248,7 +9314,7 @@
         <v>3</v>
       </c>
       <c r="G236">
-        <v>13</v>
+        <v>0.06</v>
       </c>
       <c r="H236">
         <v>13</v>
@@ -8256,6 +9322,12 @@
       <c r="I236">
         <v>13</v>
       </c>
+      <c r="J236">
+        <v>13</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8279,12 +9351,12 @@
       <c r="F237">
         <v>3</v>
       </c>
-      <c r="H237">
-        <v>14</v>
-      </c>
       <c r="I237">
         <v>14</v>
       </c>
+      <c r="J237">
+        <v>14</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8312,7 +9384,7 @@
         <v>2</v>
       </c>
       <c r="G238">
-        <v>14</v>
+        <v>0.04</v>
       </c>
       <c r="H238">
         <v>14</v>
@@ -8320,6 +9392,12 @@
       <c r="I238">
         <v>14</v>
       </c>
+      <c r="J238">
+        <v>14</v>
+      </c>
+      <c r="K238">
+        <v>9</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8347,7 +9425,7 @@
         <v>2</v>
       </c>
       <c r="G239">
-        <v>14</v>
+        <v>0.04</v>
       </c>
       <c r="H239">
         <v>14</v>
@@ -8355,6 +9433,12 @@
       <c r="I239">
         <v>14</v>
       </c>
+      <c r="J239">
+        <v>14</v>
+      </c>
+      <c r="K239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8378,12 +9462,12 @@
       <c r="F240">
         <v>2</v>
       </c>
-      <c r="H240">
-        <v>15</v>
-      </c>
       <c r="I240">
         <v>15</v>
       </c>
+      <c r="J240">
+        <v>15</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8411,7 +9495,7 @@
         <v>6</v>
       </c>
       <c r="G241">
-        <v>14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H241">
         <v>14</v>
@@ -8419,6 +9503,12 @@
       <c r="I241">
         <v>14</v>
       </c>
+      <c r="J241">
+        <v>14</v>
+      </c>
+      <c r="K241">
+        <v>2</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8446,7 +9536,7 @@
         <v>6</v>
       </c>
       <c r="G242">
-        <v>14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H242">
         <v>14</v>
@@ -8454,6 +9544,12 @@
       <c r="I242">
         <v>14</v>
       </c>
+      <c r="J242">
+        <v>14</v>
+      </c>
+      <c r="K242">
+        <v>2</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -8477,12 +9573,12 @@
       <c r="F243">
         <v>6</v>
       </c>
-      <c r="H243">
-        <v>14</v>
-      </c>
       <c r="I243">
         <v>14</v>
       </c>
+      <c r="J243">
+        <v>14</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -8510,7 +9606,7 @@
         <v>5</v>
       </c>
       <c r="G244">
-        <v>14</v>
+        <v>0.06</v>
       </c>
       <c r="H244">
         <v>14</v>
@@ -8518,6 +9614,12 @@
       <c r="I244">
         <v>14</v>
       </c>
+      <c r="J244">
+        <v>14</v>
+      </c>
+      <c r="K244">
+        <v>11</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8545,7 +9647,7 @@
         <v>5</v>
       </c>
       <c r="G245">
-        <v>14</v>
+        <v>0.06</v>
       </c>
       <c r="H245">
         <v>14</v>
@@ -8553,6 +9655,12 @@
       <c r="I245">
         <v>14</v>
       </c>
+      <c r="J245">
+        <v>14</v>
+      </c>
+      <c r="K245">
+        <v>11</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8576,12 +9684,12 @@
       <c r="F246">
         <v>5</v>
       </c>
-      <c r="H246">
-        <v>14</v>
-      </c>
       <c r="I246">
         <v>14</v>
       </c>
+      <c r="J246">
+        <v>14</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8609,7 +9717,7 @@
         <v>5</v>
       </c>
       <c r="G247">
-        <v>15</v>
+        <v>0.06</v>
       </c>
       <c r="H247">
         <v>15</v>
@@ -8617,6 +9725,12 @@
       <c r="I247">
         <v>15</v>
       </c>
+      <c r="J247">
+        <v>15</v>
+      </c>
+      <c r="K247">
+        <v>14</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8644,7 +9758,7 @@
         <v>5</v>
       </c>
       <c r="G248">
-        <v>15</v>
+        <v>0.06</v>
       </c>
       <c r="H248">
         <v>15</v>
@@ -8652,6 +9766,12 @@
       <c r="I248">
         <v>15</v>
       </c>
+      <c r="J248">
+        <v>15</v>
+      </c>
+      <c r="K248">
+        <v>14</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8675,12 +9795,12 @@
       <c r="F249">
         <v>5</v>
       </c>
-      <c r="H249">
-        <v>16</v>
-      </c>
       <c r="I249">
         <v>16</v>
       </c>
+      <c r="J249">
+        <v>16</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8708,7 +9828,7 @@
         <v>62</v>
       </c>
       <c r="G250">
-        <v>7</v>
+        <v>0.06</v>
       </c>
       <c r="H250">
         <v>7</v>
@@ -8716,6 +9836,12 @@
       <c r="I250">
         <v>7</v>
       </c>
+      <c r="J250">
+        <v>7</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8743,7 +9869,7 @@
         <v>62</v>
       </c>
       <c r="G251">
-        <v>7</v>
+        <v>0.06</v>
       </c>
       <c r="H251">
         <v>7</v>
@@ -8751,6 +9877,12 @@
       <c r="I251">
         <v>7</v>
       </c>
+      <c r="J251">
+        <v>7</v>
+      </c>
+      <c r="K251">
+        <v>2</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8774,12 +9906,12 @@
       <c r="F252">
         <v>62</v>
       </c>
-      <c r="H252">
-        <v>9</v>
-      </c>
       <c r="I252">
         <v>9</v>
       </c>
+      <c r="J252">
+        <v>9</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8807,7 +9939,7 @@
         <v>9</v>
       </c>
       <c r="G253">
-        <v>13</v>
+        <v>0.06</v>
       </c>
       <c r="H253">
         <v>13</v>
@@ -8815,6 +9947,12 @@
       <c r="I253">
         <v>13</v>
       </c>
+      <c r="J253">
+        <v>13</v>
+      </c>
+      <c r="K253">
+        <v>2</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8842,7 +9980,7 @@
         <v>9</v>
       </c>
       <c r="G254">
-        <v>13</v>
+        <v>0.06</v>
       </c>
       <c r="H254">
         <v>13</v>
@@ -8850,6 +9988,12 @@
       <c r="I254">
         <v>13</v>
       </c>
+      <c r="J254">
+        <v>13</v>
+      </c>
+      <c r="K254">
+        <v>2</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8873,12 +10017,12 @@
       <c r="F255">
         <v>9</v>
       </c>
-      <c r="H255">
-        <v>14</v>
-      </c>
       <c r="I255">
         <v>14</v>
       </c>
+      <c r="J255">
+        <v>14</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8906,7 +10050,7 @@
         <v>10</v>
       </c>
       <c r="G256">
-        <v>13</v>
+        <v>0.06</v>
       </c>
       <c r="H256">
         <v>13</v>
@@ -8914,6 +10058,12 @@
       <c r="I256">
         <v>13</v>
       </c>
+      <c r="J256">
+        <v>13</v>
+      </c>
+      <c r="K256">
+        <v>6</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8941,7 +10091,7 @@
         <v>10</v>
       </c>
       <c r="G257">
-        <v>13</v>
+        <v>0.06</v>
       </c>
       <c r="H257">
         <v>13</v>
@@ -8949,6 +10099,12 @@
       <c r="I257">
         <v>13</v>
       </c>
+      <c r="J257">
+        <v>13</v>
+      </c>
+      <c r="K257">
+        <v>6</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8972,12 +10128,12 @@
       <c r="F258">
         <v>10</v>
       </c>
-      <c r="H258">
-        <v>13</v>
-      </c>
       <c r="I258">
         <v>13</v>
       </c>
+      <c r="J258">
+        <v>13</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -9005,7 +10161,7 @@
         <v>13</v>
       </c>
       <c r="G259">
-        <v>13</v>
+        <v>0.09</v>
       </c>
       <c r="H259">
         <v>13</v>
@@ -9013,6 +10169,12 @@
       <c r="I259">
         <v>13</v>
       </c>
+      <c r="J259">
+        <v>13</v>
+      </c>
+      <c r="K259">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -9040,7 +10202,7 @@
         <v>13</v>
       </c>
       <c r="G260">
-        <v>13</v>
+        <v>0.09</v>
       </c>
       <c r="H260">
         <v>13</v>
@@ -9048,6 +10210,12 @@
       <c r="I260">
         <v>13</v>
       </c>
+      <c r="J260">
+        <v>13</v>
+      </c>
+      <c r="K260">
+        <v>2</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -9071,12 +10239,12 @@
       <c r="F261">
         <v>13</v>
       </c>
-      <c r="H261">
-        <v>13</v>
-      </c>
       <c r="I261">
         <v>13</v>
       </c>
+      <c r="J261">
+        <v>13</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -9104,7 +10272,7 @@
         <v>16</v>
       </c>
       <c r="G262">
-        <v>14</v>
+        <v>0.1</v>
       </c>
       <c r="H262">
         <v>14</v>
@@ -9112,6 +10280,12 @@
       <c r="I262">
         <v>14</v>
       </c>
+      <c r="J262">
+        <v>14</v>
+      </c>
+      <c r="K262">
+        <v>2</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -9139,7 +10313,7 @@
         <v>16</v>
       </c>
       <c r="G263">
-        <v>14</v>
+        <v>0.1</v>
       </c>
       <c r="H263">
         <v>14</v>
@@ -9147,6 +10321,12 @@
       <c r="I263">
         <v>14</v>
       </c>
+      <c r="J263">
+        <v>14</v>
+      </c>
+      <c r="K263">
+        <v>2</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -9170,12 +10350,12 @@
       <c r="F264">
         <v>16</v>
       </c>
-      <c r="H264">
-        <v>15</v>
-      </c>
       <c r="I264">
         <v>15</v>
       </c>
+      <c r="J264">
+        <v>15</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -9196,7 +10376,7 @@
       <c r="D265">
         <v>3</v>
       </c>
-      <c r="G265">
+      <c r="H265">
         <v>6</v>
       </c>
     </row>
@@ -9219,7 +10399,7 @@
       <c r="D266">
         <v>3</v>
       </c>
-      <c r="G266">
+      <c r="H266">
         <v>6</v>
       </c>
     </row>
@@ -9242,7 +10422,7 @@
       <c r="D267">
         <v>3</v>
       </c>
-      <c r="G267">
+      <c r="H267">
         <v>4</v>
       </c>
     </row>
@@ -9272,7 +10452,7 @@
         <v>15</v>
       </c>
       <c r="G268">
-        <v>12</v>
+        <v>0.06</v>
       </c>
       <c r="H268">
         <v>12</v>
@@ -9280,6 +10460,12 @@
       <c r="I268">
         <v>12</v>
       </c>
+      <c r="J268">
+        <v>12</v>
+      </c>
+      <c r="K268">
+        <v>2</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -9307,7 +10493,7 @@
         <v>15</v>
       </c>
       <c r="G269">
-        <v>12</v>
+        <v>0.06</v>
       </c>
       <c r="H269">
         <v>12</v>
@@ -9315,6 +10501,12 @@
       <c r="I269">
         <v>12</v>
       </c>
+      <c r="J269">
+        <v>12</v>
+      </c>
+      <c r="K269">
+        <v>2</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -9338,12 +10530,12 @@
       <c r="F270">
         <v>15</v>
       </c>
-      <c r="H270">
-        <v>12</v>
-      </c>
       <c r="I270">
         <v>12</v>
       </c>
+      <c r="J270">
+        <v>12</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -9371,7 +10563,7 @@
         <v>17</v>
       </c>
       <c r="G271">
-        <v>12</v>
+        <v>0.06</v>
       </c>
       <c r="H271">
         <v>12</v>
@@ -9379,6 +10571,12 @@
       <c r="I271">
         <v>12</v>
       </c>
+      <c r="J271">
+        <v>12</v>
+      </c>
+      <c r="K271">
+        <v>6</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -9406,7 +10604,7 @@
         <v>17</v>
       </c>
       <c r="G272">
-        <v>12</v>
+        <v>0.06</v>
       </c>
       <c r="H272">
         <v>12</v>
@@ -9414,6 +10612,12 @@
       <c r="I272">
         <v>12</v>
       </c>
+      <c r="J272">
+        <v>12</v>
+      </c>
+      <c r="K272">
+        <v>6</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -9437,12 +10641,12 @@
       <c r="F273">
         <v>17</v>
       </c>
-      <c r="H273">
-        <v>12</v>
-      </c>
       <c r="I273">
         <v>12</v>
       </c>
+      <c r="J273">
+        <v>12</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -9470,14 +10674,20 @@
         <v>25</v>
       </c>
       <c r="G274">
+        <v>0.09</v>
+      </c>
+      <c r="H274">
         <v>12</v>
-      </c>
-      <c r="H274">
-        <v>11</v>
       </c>
       <c r="I274">
         <v>11</v>
       </c>
+      <c r="J274">
+        <v>11</v>
+      </c>
+      <c r="K274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -9505,14 +10715,20 @@
         <v>25</v>
       </c>
       <c r="G275">
+        <v>0.09</v>
+      </c>
+      <c r="H275">
         <v>12</v>
-      </c>
-      <c r="H275">
-        <v>11</v>
       </c>
       <c r="I275">
         <v>11</v>
       </c>
+      <c r="J275">
+        <v>11</v>
+      </c>
+      <c r="K275">
+        <v>2</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -9536,12 +10752,12 @@
       <c r="F276">
         <v>25</v>
       </c>
-      <c r="H276">
-        <v>11</v>
-      </c>
       <c r="I276">
         <v>11</v>
       </c>
+      <c r="J276">
+        <v>11</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -9569,14 +10785,20 @@
         <v>29</v>
       </c>
       <c r="G277">
+        <v>0.1</v>
+      </c>
+      <c r="H277">
         <v>13</v>
-      </c>
-      <c r="H277">
-        <v>12</v>
       </c>
       <c r="I277">
         <v>12</v>
       </c>
+      <c r="J277">
+        <v>12</v>
+      </c>
+      <c r="K277">
+        <v>2</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9604,14 +10826,20 @@
         <v>29</v>
       </c>
       <c r="G278">
+        <v>0.1</v>
+      </c>
+      <c r="H278">
         <v>13</v>
-      </c>
-      <c r="H278">
-        <v>12</v>
       </c>
       <c r="I278">
         <v>12</v>
       </c>
+      <c r="J278">
+        <v>12</v>
+      </c>
+      <c r="K278">
+        <v>2</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -9635,12 +10863,12 @@
       <c r="F279">
         <v>29</v>
       </c>
-      <c r="H279">
-        <v>14</v>
-      </c>
       <c r="I279">
         <v>14</v>
       </c>
+      <c r="J279">
+        <v>14</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9668,14 +10896,20 @@
         <v>41</v>
       </c>
       <c r="G280">
+        <v>0.04</v>
+      </c>
+      <c r="H280">
         <v>8</v>
-      </c>
-      <c r="H280">
-        <v>10</v>
       </c>
       <c r="I280">
         <v>10</v>
       </c>
+      <c r="J280">
+        <v>10</v>
+      </c>
+      <c r="K280">
+        <v>11</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9703,14 +10937,20 @@
         <v>41</v>
       </c>
       <c r="G281">
+        <v>0.04</v>
+      </c>
+      <c r="H281">
         <v>8</v>
-      </c>
-      <c r="H281">
-        <v>10</v>
       </c>
       <c r="I281">
         <v>10</v>
       </c>
+      <c r="J281">
+        <v>10</v>
+      </c>
+      <c r="K281">
+        <v>11</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -9734,12 +10974,12 @@
       <c r="F282">
         <v>41</v>
       </c>
-      <c r="H282">
-        <v>10</v>
-      </c>
       <c r="I282">
         <v>10</v>
       </c>
+      <c r="J282">
+        <v>10</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9767,7 +11007,7 @@
         <v>25</v>
       </c>
       <c r="G283">
-        <v>11</v>
+        <v>0.09</v>
       </c>
       <c r="H283">
         <v>11</v>
@@ -9775,6 +11015,12 @@
       <c r="I283">
         <v>11</v>
       </c>
+      <c r="J283">
+        <v>11</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9802,7 +11048,7 @@
         <v>25</v>
       </c>
       <c r="G284">
-        <v>11</v>
+        <v>0.09</v>
       </c>
       <c r="H284">
         <v>11</v>
@@ -9810,6 +11056,12 @@
       <c r="I284">
         <v>11</v>
       </c>
+      <c r="J284">
+        <v>11</v>
+      </c>
+      <c r="K284">
+        <v>2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -9833,12 +11085,12 @@
       <c r="F285">
         <v>25</v>
       </c>
-      <c r="H285">
-        <v>11</v>
-      </c>
       <c r="I285">
         <v>11</v>
       </c>
+      <c r="J285">
+        <v>11</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9866,7 +11118,7 @@
         <v>78</v>
       </c>
       <c r="G286">
-        <v>11</v>
+        <v>0.09</v>
       </c>
       <c r="H286">
         <v>11</v>
@@ -9874,6 +11126,12 @@
       <c r="I286">
         <v>11</v>
       </c>
+      <c r="J286">
+        <v>11</v>
+      </c>
+      <c r="K286">
+        <v>6</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9901,7 +11159,7 @@
         <v>78</v>
       </c>
       <c r="G287">
-        <v>11</v>
+        <v>0.09</v>
       </c>
       <c r="H287">
         <v>11</v>
@@ -9909,6 +11167,12 @@
       <c r="I287">
         <v>11</v>
       </c>
+      <c r="J287">
+        <v>11</v>
+      </c>
+      <c r="K287">
+        <v>6</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9932,12 +11196,12 @@
       <c r="F288">
         <v>78</v>
       </c>
-      <c r="H288">
-        <v>13</v>
-      </c>
       <c r="I288">
         <v>13</v>
       </c>
+      <c r="J288">
+        <v>13</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9965,14 +11229,20 @@
         <v>62</v>
       </c>
       <c r="G289">
+        <v>0.04</v>
+      </c>
+      <c r="H289">
         <v>7</v>
-      </c>
-      <c r="H289">
-        <v>8</v>
       </c>
       <c r="I289">
         <v>8</v>
       </c>
+      <c r="J289">
+        <v>8</v>
+      </c>
+      <c r="K289">
+        <v>9</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -10000,14 +11270,20 @@
         <v>62</v>
       </c>
       <c r="G290">
+        <v>0.04</v>
+      </c>
+      <c r="H290">
         <v>7</v>
-      </c>
-      <c r="H290">
-        <v>8</v>
       </c>
       <c r="I290">
         <v>8</v>
       </c>
+      <c r="J290">
+        <v>8</v>
+      </c>
+      <c r="K290">
+        <v>9</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -10031,12 +11307,12 @@
       <c r="F291">
         <v>62</v>
       </c>
-      <c r="H291">
-        <v>10</v>
-      </c>
       <c r="I291">
         <v>10</v>
       </c>
+      <c r="J291">
+        <v>10</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -10064,7 +11340,7 @@
         <v>35</v>
       </c>
       <c r="G292">
-        <v>11</v>
+        <v>0.04</v>
       </c>
       <c r="H292">
         <v>11</v>
@@ -10072,6 +11348,12 @@
       <c r="I292">
         <v>11</v>
       </c>
+      <c r="J292">
+        <v>11</v>
+      </c>
+      <c r="K292">
+        <v>11</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -10099,7 +11381,7 @@
         <v>35</v>
       </c>
       <c r="G293">
-        <v>11</v>
+        <v>0.04</v>
       </c>
       <c r="H293">
         <v>11</v>
@@ -10107,6 +11389,12 @@
       <c r="I293">
         <v>11</v>
       </c>
+      <c r="J293">
+        <v>11</v>
+      </c>
+      <c r="K293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -10130,12 +11418,12 @@
       <c r="F294">
         <v>35</v>
       </c>
-      <c r="H294">
-        <v>11</v>
-      </c>
       <c r="I294">
         <v>11</v>
       </c>
+      <c r="J294">
+        <v>11</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -10163,7 +11451,7 @@
         <v>187</v>
       </c>
       <c r="G295">
-        <v>7</v>
+        <v>0.09</v>
       </c>
       <c r="H295">
         <v>7</v>
@@ -10171,6 +11459,12 @@
       <c r="I295">
         <v>7</v>
       </c>
+      <c r="J295">
+        <v>7</v>
+      </c>
+      <c r="K295">
+        <v>2</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -10198,7 +11492,7 @@
         <v>187</v>
       </c>
       <c r="G296">
-        <v>7</v>
+        <v>0.09</v>
       </c>
       <c r="H296">
         <v>7</v>
@@ -10206,6 +11500,12 @@
       <c r="I296">
         <v>7</v>
       </c>
+      <c r="J296">
+        <v>7</v>
+      </c>
+      <c r="K296">
+        <v>2</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -10229,12 +11529,12 @@
       <c r="F297">
         <v>187</v>
       </c>
-      <c r="H297">
-        <v>7</v>
-      </c>
       <c r="I297">
         <v>7</v>
       </c>
+      <c r="J297">
+        <v>7</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -10262,14 +11562,20 @@
         <v>178</v>
       </c>
       <c r="G298">
+        <v>0.09</v>
+      </c>
+      <c r="H298">
         <v>10</v>
-      </c>
-      <c r="H298">
-        <v>9</v>
       </c>
       <c r="I298">
         <v>9</v>
       </c>
+      <c r="J298">
+        <v>9</v>
+      </c>
+      <c r="K298">
+        <v>6</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -10297,14 +11603,20 @@
         <v>178</v>
       </c>
       <c r="G299">
+        <v>0.09</v>
+      </c>
+      <c r="H299">
         <v>10</v>
-      </c>
-      <c r="H299">
-        <v>9</v>
       </c>
       <c r="I299">
         <v>9</v>
       </c>
+      <c r="J299">
+        <v>9</v>
+      </c>
+      <c r="K299">
+        <v>6</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -10328,10 +11640,10 @@
       <c r="F300">
         <v>178</v>
       </c>
-      <c r="H300">
+      <c r="I300">
         <v>12</v>
       </c>
-      <c r="I300">
+      <c r="J300">
         <v>12</v>
       </c>
     </row>
